--- a/Data/Modeling Stage/Feature Selection/R_Gonz_feature_selection_Date_threshold_50.xlsx
+++ b/Data/Modeling Stage/Feature Selection/R_Gonz_feature_selection_Date_threshold_50.xlsx
@@ -47,112 +47,112 @@
     <t>Feature</t>
   </si>
   <si>
+    <t>Average grade of assignments</t>
+  </si>
+  <si>
+    <t>Largest period of inactivity (h)</t>
+  </si>
+  <si>
+    <t>Submissions (% of course total)</t>
+  </si>
+  <si>
     <t>Clicks (% of course total)</t>
   </si>
   <si>
     <t>On/off campus click ratio</t>
   </si>
   <si>
+    <t>Days with no interaction</t>
+  </si>
+  <si>
+    <t>Start of Session 1 (%)</t>
+  </si>
+  <si>
+    <t>Clicks per session</t>
+  </si>
+  <si>
+    <t>Number of days</t>
+  </si>
+  <si>
     <t>Resources viewed</t>
   </si>
   <si>
-    <t>Average grade of assignments</t>
-  </si>
-  <si>
-    <t>Submissions (% of course total)</t>
-  </si>
-  <si>
-    <t>Days with no interaction</t>
-  </si>
-  <si>
-    <t>Largest period of inactivity (h)</t>
-  </si>
-  <si>
-    <t>Number of days</t>
-  </si>
-  <si>
-    <t>Start of Session 1 (%)</t>
-  </si>
-  <si>
-    <t>Clicks per session</t>
+    <t>Number of clicks</t>
+  </si>
+  <si>
+    <t>Clicks on folder</t>
+  </si>
+  <si>
+    <t>Start of Session 3 (%)</t>
+  </si>
+  <si>
+    <t>Clicks on campus</t>
+  </si>
+  <si>
+    <t>Total time online (min)</t>
+  </si>
+  <si>
+    <t>Average session duration (min)</t>
+  </si>
+  <si>
+    <t>Start of Session 2 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 7 (%)</t>
   </si>
   <si>
     <t>Clicks per day</t>
   </si>
   <si>
-    <t>Number of clicks</t>
-  </si>
-  <si>
-    <t>Start of Session 2 (%)</t>
-  </si>
-  <si>
-    <t>Average session duration (min)</t>
-  </si>
-  <si>
-    <t>Total time online (min)</t>
-  </si>
-  <si>
-    <t>Clicks on campus</t>
-  </si>
-  <si>
-    <t>Start of Session 3 (%)</t>
-  </si>
-  <si>
-    <t>Clicks on folder</t>
+    <t>Links viewed</t>
+  </si>
+  <si>
+    <t>Assignments submitted</t>
+  </si>
+  <si>
+    <t>Assignments viewed</t>
+  </si>
+  <si>
+    <t>Discussions viewed</t>
+  </si>
+  <si>
+    <t>Forum posts</t>
+  </si>
+  <si>
+    <t>Files downloaded</t>
+  </si>
+  <si>
+    <t>Start of Session 4 (%)</t>
   </si>
   <si>
     <t>Number of sessions</t>
   </si>
   <si>
-    <t>Forum posts</t>
-  </si>
-  <si>
-    <t>Start of Session 4 (%)</t>
-  </si>
-  <si>
     <t>Days with no interaction (%)</t>
   </si>
   <si>
-    <t>Start of Session 7 (%)</t>
-  </si>
-  <si>
-    <t>Files downloaded</t>
-  </si>
-  <si>
-    <t>Links viewed</t>
-  </si>
-  <si>
     <t>Quizzes started</t>
   </si>
   <si>
-    <t>Discussions viewed</t>
-  </si>
-  <si>
-    <t>Assignments viewed</t>
-  </si>
-  <si>
-    <t>Assignments submitted</t>
+    <t>Start of Session 5 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 8 (%)</t>
   </si>
   <si>
     <t>Clicks on course</t>
   </si>
   <si>
+    <t>Clicks on forum</t>
+  </si>
+  <si>
+    <t>Start of Session 6 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 10 (%)</t>
+  </si>
+  <si>
     <t>Start of Session 9 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 8 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 6 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 5 (%)</t>
-  </si>
-  <si>
-    <t>Clicks on forum</t>
-  </si>
-  <si>
-    <t>Start of Session 10 (%)</t>
   </si>
 </sst>
 </file>
@@ -751,10 +751,10 @@
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
@@ -847,10 +847,10 @@
         <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
@@ -873,16 +873,16 @@
         <v>20</v>
       </c>
       <c r="B12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
@@ -911,13 +911,13 @@
         <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
       </c>
       <c r="F13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
@@ -969,16 +969,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
@@ -1033,16 +1033,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1161,13 +1161,13 @@
         <v>29</v>
       </c>
       <c r="B21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -1185,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1199,13 +1199,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
@@ -1228,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
@@ -1263,13 +1263,13 @@
         <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
@@ -1321,13 +1321,13 @@
         <v>34</v>
       </c>
       <c r="B26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -1362,10 +1362,10 @@
         <v>0</v>
       </c>
       <c r="E27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>37</v>
       </c>
       <c r="B29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
@@ -1455,10 +1455,10 @@
         <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
@@ -1747,7 +1747,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -1779,7 +1779,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -1875,7 +1875,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -1907,7 +1907,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -1939,7 +1939,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -1971,7 +1971,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -1980,10 +1980,10 @@
         <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
@@ -2003,7 +2003,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -2035,7 +2035,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -2044,10 +2044,10 @@
         <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
@@ -2067,7 +2067,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -2076,13 +2076,13 @@
         <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
       </c>
       <c r="F12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
@@ -2099,7 +2099,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -2131,7 +2131,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -2140,13 +2140,13 @@
         <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
       </c>
       <c r="F14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
@@ -2163,7 +2163,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -2195,13 +2195,13 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -2222,12 +2222,12 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -2259,7 +2259,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
@@ -2291,13 +2291,13 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -2323,7 +2323,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
@@ -2355,7 +2355,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
@@ -2387,7 +2387,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
@@ -2419,7 +2419,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -2451,7 +2451,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -2483,10 +2483,10 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
@@ -2498,7 +2498,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
@@ -2515,7 +2515,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -2547,7 +2547,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -2579,7 +2579,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -2611,7 +2611,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -2620,13 +2620,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
       </c>
       <c r="F29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
@@ -2643,7 +2643,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -2670,12 +2670,12 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -2707,7 +2707,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -2739,7 +2739,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -2771,7 +2771,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -2803,7 +2803,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
@@ -2835,7 +2835,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B36" t="b">
         <v>0</v>
@@ -2867,7 +2867,7 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B37" t="b">
         <v>0</v>

--- a/Data/Modeling Stage/Feature Selection/R_Gonz_feature_selection_Date_threshold_50.xlsx
+++ b/Data/Modeling Stage/Feature Selection/R_Gonz_feature_selection_Date_threshold_50.xlsx
@@ -47,112 +47,112 @@
     <t>Feature</t>
   </si>
   <si>
+    <t>On/off campus click ratio</t>
+  </si>
+  <si>
+    <t>Largest period of inactivity (h)</t>
+  </si>
+  <si>
     <t>Average grade of assignments</t>
   </si>
   <si>
-    <t>Largest period of inactivity (h)</t>
-  </si>
-  <si>
     <t>Submissions (% of course total)</t>
   </si>
   <si>
     <t>Clicks (% of course total)</t>
   </si>
   <si>
-    <t>On/off campus click ratio</t>
-  </si>
-  <si>
     <t>Days with no interaction</t>
   </si>
   <si>
+    <t>Clicks per session</t>
+  </si>
+  <si>
+    <t>Number of days</t>
+  </si>
+  <si>
     <t>Start of Session 1 (%)</t>
   </si>
   <si>
-    <t>Clicks per session</t>
-  </si>
-  <si>
-    <t>Number of days</t>
+    <t>Start of Session 2 (%)</t>
   </si>
   <si>
     <t>Resources viewed</t>
   </si>
   <si>
+    <t>Clicks per day</t>
+  </si>
+  <si>
     <t>Number of clicks</t>
   </si>
   <si>
+    <t>Average session duration (min)</t>
+  </si>
+  <si>
+    <t>Total time online (min)</t>
+  </si>
+  <si>
+    <t>Clicks on campus</t>
+  </si>
+  <si>
+    <t>Start of Session 3 (%)</t>
+  </si>
+  <si>
     <t>Clicks on folder</t>
   </si>
   <si>
-    <t>Start of Session 3 (%)</t>
-  </si>
-  <si>
-    <t>Clicks on campus</t>
-  </si>
-  <si>
-    <t>Total time online (min)</t>
-  </si>
-  <si>
-    <t>Average session duration (min)</t>
-  </si>
-  <si>
-    <t>Start of Session 2 (%)</t>
+    <t>Number of sessions</t>
+  </si>
+  <si>
+    <t>Forum posts</t>
+  </si>
+  <si>
+    <t>Start of Session 4 (%)</t>
+  </si>
+  <si>
+    <t>Days with no interaction (%)</t>
   </si>
   <si>
     <t>Start of Session 7 (%)</t>
   </si>
   <si>
-    <t>Clicks per day</t>
+    <t>Files downloaded</t>
   </si>
   <si>
     <t>Links viewed</t>
   </si>
   <si>
+    <t>Discussions viewed</t>
+  </si>
+  <si>
+    <t>Assignments viewed</t>
+  </si>
+  <si>
     <t>Assignments submitted</t>
   </si>
   <si>
-    <t>Assignments viewed</t>
-  </si>
-  <si>
-    <t>Discussions viewed</t>
-  </si>
-  <si>
-    <t>Forum posts</t>
-  </si>
-  <si>
-    <t>Files downloaded</t>
-  </si>
-  <si>
-    <t>Start of Session 4 (%)</t>
-  </si>
-  <si>
-    <t>Number of sessions</t>
-  </si>
-  <si>
-    <t>Days with no interaction (%)</t>
-  </si>
-  <si>
     <t>Quizzes started</t>
   </si>
   <si>
+    <t>Clicks on course</t>
+  </si>
+  <si>
+    <t>Start of Session 9 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 8 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 6 (%)</t>
+  </si>
+  <si>
     <t>Start of Session 5 (%)</t>
   </si>
   <si>
-    <t>Start of Session 8 (%)</t>
-  </si>
-  <si>
-    <t>Clicks on course</t>
-  </si>
-  <si>
     <t>Clicks on forum</t>
   </si>
   <si>
-    <t>Start of Session 6 (%)</t>
-  </si>
-  <si>
     <t>Start of Session 10 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 9 (%)</t>
   </si>
 </sst>
 </file>
@@ -847,10 +847,10 @@
         <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
@@ -879,7 +879,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
@@ -897,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -905,19 +905,19 @@
         <v>21</v>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
       </c>
       <c r="E13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
@@ -969,16 +969,16 @@
         <v>23</v>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
@@ -1033,16 +1033,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1161,13 +1161,13 @@
         <v>29</v>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -1185,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1199,13 +1199,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
@@ -1228,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
@@ -1263,13 +1263,13 @@
         <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
@@ -1321,13 +1321,13 @@
         <v>34</v>
       </c>
       <c r="B26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
       </c>
       <c r="D26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -1359,13 +1359,13 @@
         <v>0</v>
       </c>
       <c r="D27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
       </c>
       <c r="F27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>36</v>
       </c>
       <c r="B28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
@@ -1423,13 +1423,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
       </c>
       <c r="F29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
@@ -1458,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
@@ -1473,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1747,7 +1747,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -1875,7 +1875,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -1907,7 +1907,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -1939,7 +1939,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -1971,7 +1971,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -1980,10 +1980,10 @@
         <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
@@ -2003,7 +2003,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -2035,7 +2035,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -2044,10 +2044,10 @@
         <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
@@ -2067,7 +2067,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -2076,13 +2076,13 @@
         <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
       </c>
       <c r="F12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
@@ -2099,7 +2099,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -2131,13 +2131,13 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -2158,27 +2158,27 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
@@ -2190,18 +2190,18 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -2222,12 +2222,12 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -2259,7 +2259,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
@@ -2291,13 +2291,13 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -2318,12 +2318,12 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
@@ -2355,7 +2355,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
@@ -2419,7 +2419,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -2451,7 +2451,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -2483,7 +2483,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B25" t="b">
         <v>1</v>
@@ -2515,7 +2515,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -2547,7 +2547,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -2579,7 +2579,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -2611,7 +2611,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -2643,7 +2643,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -2675,7 +2675,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -2707,7 +2707,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -2739,7 +2739,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -2771,7 +2771,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -2803,7 +2803,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
@@ -2835,7 +2835,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B36" t="b">
         <v>0</v>
@@ -2867,7 +2867,7 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B37" t="b">
         <v>0</v>

--- a/Data/Modeling Stage/Feature Selection/R_Gonz_feature_selection_Date_threshold_50.xlsx
+++ b/Data/Modeling Stage/Feature Selection/R_Gonz_feature_selection_Date_threshold_50.xlsx
@@ -47,112 +47,112 @@
     <t>Feature</t>
   </si>
   <si>
+    <t>Average grade of assignments</t>
+  </si>
+  <si>
+    <t>Largest period of inactivity (h)</t>
+  </si>
+  <si>
+    <t>Submissions (% of course total)</t>
+  </si>
+  <si>
+    <t>Clicks (% of course total)</t>
+  </si>
+  <si>
     <t>On/off campus click ratio</t>
   </si>
   <si>
-    <t>Largest period of inactivity (h)</t>
-  </si>
-  <si>
-    <t>Average grade of assignments</t>
-  </si>
-  <si>
-    <t>Submissions (% of course total)</t>
-  </si>
-  <si>
-    <t>Clicks (% of course total)</t>
-  </si>
-  <si>
     <t>Days with no interaction</t>
   </si>
   <si>
+    <t>Total time online (min)</t>
+  </si>
+  <si>
+    <t>Start of Session 1 (%)</t>
+  </si>
+  <si>
     <t>Clicks per session</t>
   </si>
   <si>
     <t>Number of days</t>
   </si>
   <si>
-    <t>Start of Session 1 (%)</t>
+    <t>Resources viewed</t>
+  </si>
+  <si>
+    <t>Number of clicks</t>
+  </si>
+  <si>
+    <t>Average session duration (min)</t>
   </si>
   <si>
     <t>Start of Session 2 (%)</t>
   </si>
   <si>
-    <t>Resources viewed</t>
+    <t>Start of Session 3 (%)</t>
   </si>
   <si>
     <t>Clicks per day</t>
   </si>
   <si>
-    <t>Number of clicks</t>
-  </si>
-  <si>
-    <t>Average session duration (min)</t>
-  </si>
-  <si>
-    <t>Total time online (min)</t>
+    <t>Clicks on folder</t>
   </si>
   <si>
     <t>Clicks on campus</t>
   </si>
   <si>
-    <t>Start of Session 3 (%)</t>
-  </si>
-  <si>
-    <t>Clicks on folder</t>
+    <t>Files downloaded</t>
+  </si>
+  <si>
+    <t>Forum posts</t>
+  </si>
+  <si>
+    <t>Days with no interaction (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 4 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 7 (%)</t>
   </si>
   <si>
     <t>Number of sessions</t>
   </si>
   <si>
-    <t>Forum posts</t>
-  </si>
-  <si>
-    <t>Start of Session 4 (%)</t>
-  </si>
-  <si>
-    <t>Days with no interaction (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 7 (%)</t>
-  </si>
-  <si>
-    <t>Files downloaded</t>
-  </si>
-  <si>
     <t>Links viewed</t>
   </si>
   <si>
     <t>Discussions viewed</t>
   </si>
   <si>
+    <t>Assignments submitted</t>
+  </si>
+  <si>
+    <t>Clicks on course</t>
+  </si>
+  <si>
+    <t>Quizzes started</t>
+  </si>
+  <si>
+    <t>Start of Session 9 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 8 (%)</t>
+  </si>
+  <si>
     <t>Assignments viewed</t>
   </si>
   <si>
-    <t>Assignments submitted</t>
-  </si>
-  <si>
-    <t>Quizzes started</t>
-  </si>
-  <si>
-    <t>Clicks on course</t>
-  </si>
-  <si>
-    <t>Start of Session 9 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 8 (%)</t>
-  </si>
-  <si>
     <t>Start of Session 6 (%)</t>
   </si>
   <si>
     <t>Start of Session 5 (%)</t>
   </si>
   <si>
+    <t>Start of Session 10 (%)</t>
+  </si>
+  <si>
     <t>Clicks on forum</t>
-  </si>
-  <si>
-    <t>Start of Session 10 (%)</t>
   </si>
 </sst>
 </file>
@@ -905,16 +905,16 @@
         <v>21</v>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
@@ -1068,16 +1068,16 @@
         <v>1</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
@@ -1089,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1097,7 +1097,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>36</v>
       </c>
       <c r="B28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
@@ -1417,13 +1417,13 @@
         <v>37</v>
       </c>
       <c r="B29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -1747,7 +1747,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -1779,7 +1779,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -1811,7 +1811,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -1875,7 +1875,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -1907,7 +1907,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -1939,7 +1939,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -1948,10 +1948,10 @@
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
@@ -1971,7 +1971,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -2003,7 +2003,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -2035,7 +2035,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -2044,10 +2044,10 @@
         <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
@@ -2067,7 +2067,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -2108,13 +2108,13 @@
         <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
       </c>
       <c r="F13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
@@ -2131,13 +2131,13 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -2158,27 +2158,27 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
       </c>
       <c r="F15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
@@ -2190,18 +2190,18 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -2222,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2233,7 +2233,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
@@ -2254,18 +2254,18 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
       </c>
       <c r="C18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -2286,18 +2286,18 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -2318,18 +2318,18 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
@@ -2350,12 +2350,12 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
@@ -2364,13 +2364,13 @@
         <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
@@ -2419,7 +2419,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -2428,13 +2428,13 @@
         <v>0</v>
       </c>
       <c r="D23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
@@ -2451,7 +2451,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -2460,13 +2460,13 @@
         <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
@@ -2483,16 +2483,16 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -2579,7 +2579,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -2611,7 +2611,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -2620,13 +2620,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
       </c>
       <c r="F29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
@@ -2643,7 +2643,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -2670,12 +2670,12 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -2707,7 +2707,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -2739,7 +2739,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -2771,7 +2771,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -2803,7 +2803,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
@@ -2835,7 +2835,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B36" t="b">
         <v>0</v>
@@ -2867,7 +2867,7 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B37" t="b">
         <v>0</v>

--- a/Data/Modeling Stage/Feature Selection/R_Gonz_feature_selection_Date_threshold_50.xlsx
+++ b/Data/Modeling Stage/Feature Selection/R_Gonz_feature_selection_Date_threshold_50.xlsx
@@ -50,21 +50,24 @@
     <t>Average grade of assignments</t>
   </si>
   <si>
+    <t>Submissions (% of course total)</t>
+  </si>
+  <si>
+    <t>Clicks (% of course total)</t>
+  </si>
+  <si>
+    <t>On/off campus click ratio</t>
+  </si>
+  <si>
+    <t>Days with no interaction</t>
+  </si>
+  <si>
+    <t>Clicks on campus</t>
+  </si>
+  <si>
     <t>Largest period of inactivity (h)</t>
   </si>
   <si>
-    <t>Submissions (% of course total)</t>
-  </si>
-  <si>
-    <t>Clicks (% of course total)</t>
-  </si>
-  <si>
-    <t>On/off campus click ratio</t>
-  </si>
-  <si>
-    <t>Days with no interaction</t>
-  </si>
-  <si>
     <t>Total time online (min)</t>
   </si>
   <si>
@@ -83,76 +86,73 @@
     <t>Number of clicks</t>
   </si>
   <si>
+    <t>Clicks per day</t>
+  </si>
+  <si>
+    <t>Clicks on folder</t>
+  </si>
+  <si>
     <t>Average session duration (min)</t>
   </si>
   <si>
+    <t>Start of Session 3 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 7 (%)</t>
+  </si>
+  <si>
+    <t>Links viewed</t>
+  </si>
+  <si>
+    <t>Days with no interaction (%)</t>
+  </si>
+  <si>
     <t>Start of Session 2 (%)</t>
   </si>
   <si>
-    <t>Start of Session 3 (%)</t>
-  </si>
-  <si>
-    <t>Clicks per day</t>
-  </si>
-  <si>
-    <t>Clicks on folder</t>
-  </si>
-  <si>
-    <t>Clicks on campus</t>
+    <t>Start of Session 4 (%)</t>
+  </si>
+  <si>
+    <t>Assignments viewed</t>
   </si>
   <si>
     <t>Files downloaded</t>
   </si>
   <si>
+    <t>Start of Session 5 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 6 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 10 (%)</t>
+  </si>
+  <si>
+    <t>Discussions viewed</t>
+  </si>
+  <si>
+    <t>Assignments submitted</t>
+  </si>
+  <si>
+    <t>Clicks on course</t>
+  </si>
+  <si>
+    <t>Number of sessions</t>
+  </si>
+  <si>
+    <t>Clicks on forum</t>
+  </si>
+  <si>
     <t>Forum posts</t>
   </si>
   <si>
-    <t>Days with no interaction (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 4 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 7 (%)</t>
-  </si>
-  <si>
-    <t>Number of sessions</t>
-  </si>
-  <si>
-    <t>Links viewed</t>
-  </si>
-  <si>
-    <t>Discussions viewed</t>
-  </si>
-  <si>
-    <t>Assignments submitted</t>
-  </si>
-  <si>
-    <t>Clicks on course</t>
+    <t>Start of Session 9 (%)</t>
   </si>
   <si>
     <t>Quizzes started</t>
   </si>
   <si>
-    <t>Start of Session 9 (%)</t>
-  </si>
-  <si>
     <t>Start of Session 8 (%)</t>
-  </si>
-  <si>
-    <t>Assignments viewed</t>
-  </si>
-  <si>
-    <t>Start of Session 6 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 5 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 10 (%)</t>
-  </si>
-  <si>
-    <t>Clicks on forum</t>
   </si>
 </sst>
 </file>
@@ -687,7 +687,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -713,13 +713,13 @@
         <v>15</v>
       </c>
       <c r="B7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -751,10 +751,10 @@
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
@@ -879,10 +879,10 @@
         <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
@@ -911,7 +911,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
@@ -929,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -969,13 +969,13 @@
         <v>23</v>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
@@ -1007,13 +1007,13 @@
         <v>1</v>
       </c>
       <c r="D16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
       </c>
       <c r="F16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
@@ -1033,16 +1033,16 @@
         <v>25</v>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
@@ -1068,16 +1068,16 @@
         <v>1</v>
       </c>
       <c r="C18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
@@ -1089,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1097,13 +1097,13 @@
         <v>27</v>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1129,13 +1129,13 @@
         <v>28</v>
       </c>
       <c r="B20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1164,16 +1164,16 @@
         <v>0</v>
       </c>
       <c r="C21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
@@ -1185,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -1217,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1228,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -1249,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1257,10 +1257,10 @@
         <v>32</v>
       </c>
       <c r="B24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
@@ -1281,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1321,10 +1321,10 @@
         <v>34</v>
       </c>
       <c r="B26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="C27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
@@ -1417,13 +1417,13 @@
         <v>37</v>
       </c>
       <c r="B29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -1455,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -1473,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1484,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1519,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
@@ -1569,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1583,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="b">
         <v>0</v>
@@ -1601,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1747,7 +1747,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -1779,7 +1779,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -1811,7 +1811,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -1875,7 +1875,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -1907,7 +1907,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -1919,7 +1919,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
@@ -1934,12 +1934,12 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -1948,10 +1948,10 @@
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
@@ -1971,7 +1971,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -2003,7 +2003,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -2012,10 +2012,10 @@
         <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
@@ -2035,7 +2035,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
@@ -2062,24 +2062,24 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
       </c>
       <c r="C12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
@@ -2099,7 +2099,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -2108,13 +2108,13 @@
         <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
       </c>
       <c r="F13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
@@ -2131,13 +2131,13 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -2158,27 +2158,27 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
@@ -2190,18 +2190,18 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -2222,18 +2222,18 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
@@ -2254,18 +2254,18 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -2286,18 +2286,18 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -2318,27 +2318,27 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
@@ -2350,12 +2350,12 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
@@ -2364,13 +2364,13 @@
         <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
@@ -2387,7 +2387,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
@@ -2396,13 +2396,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
@@ -2419,7 +2419,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -2451,10 +2451,10 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
@@ -2483,7 +2483,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -2492,13 +2492,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
@@ -2515,7 +2515,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -2547,7 +2547,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -2579,7 +2579,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -2611,7 +2611,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -2620,13 +2620,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
       </c>
       <c r="F29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
@@ -2643,7 +2643,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -2670,12 +2670,12 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -2707,7 +2707,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -2739,7 +2739,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -2771,7 +2771,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -2803,7 +2803,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
@@ -2835,7 +2835,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B36" t="b">
         <v>0</v>
@@ -2867,7 +2867,7 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B37" t="b">
         <v>0</v>

--- a/Data/Modeling Stage/Feature Selection/R_Gonz_feature_selection_Date_threshold_50.xlsx
+++ b/Data/Modeling Stage/Feature Selection/R_Gonz_feature_selection_Date_threshold_50.xlsx
@@ -68,54 +68,54 @@
     <t>Largest period of inactivity (h)</t>
   </si>
   <si>
+    <t>Start of Session 1 (%)</t>
+  </si>
+  <si>
+    <t>Clicks per day</t>
+  </si>
+  <si>
+    <t>Number of days</t>
+  </si>
+  <si>
+    <t>Resources viewed</t>
+  </si>
+  <si>
+    <t>Number of clicks</t>
+  </si>
+  <si>
+    <t>Clicks per session</t>
+  </si>
+  <si>
+    <t>Clicks on folder</t>
+  </si>
+  <si>
     <t>Total time online (min)</t>
   </si>
   <si>
-    <t>Start of Session 1 (%)</t>
-  </si>
-  <si>
-    <t>Clicks per session</t>
-  </si>
-  <si>
-    <t>Number of days</t>
-  </si>
-  <si>
-    <t>Resources viewed</t>
-  </si>
-  <si>
-    <t>Number of clicks</t>
-  </si>
-  <si>
-    <t>Clicks per day</t>
-  </si>
-  <si>
-    <t>Clicks on folder</t>
-  </si>
-  <si>
     <t>Average session duration (min)</t>
   </si>
   <si>
+    <t>Start of Session 2 (%)</t>
+  </si>
+  <si>
     <t>Start of Session 3 (%)</t>
   </si>
   <si>
+    <t>Links viewed</t>
+  </si>
+  <si>
+    <t>Days with no interaction (%)</t>
+  </si>
+  <si>
     <t>Start of Session 7 (%)</t>
   </si>
   <si>
-    <t>Links viewed</t>
-  </si>
-  <si>
-    <t>Days with no interaction (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 2 (%)</t>
+    <t>Assignments viewed</t>
   </si>
   <si>
     <t>Start of Session 4 (%)</t>
   </si>
   <si>
-    <t>Assignments viewed</t>
-  </si>
-  <si>
     <t>Files downloaded</t>
   </si>
   <si>
@@ -125,9 +125,15 @@
     <t>Start of Session 6 (%)</t>
   </si>
   <si>
+    <t>Forum posts</t>
+  </si>
+  <si>
     <t>Start of Session 10 (%)</t>
   </si>
   <si>
+    <t>Quizzes started</t>
+  </si>
+  <si>
     <t>Discussions viewed</t>
   </si>
   <si>
@@ -143,16 +149,10 @@
     <t>Clicks on forum</t>
   </si>
   <si>
-    <t>Forum posts</t>
+    <t>Start of Session 8 (%)</t>
   </si>
   <si>
     <t>Start of Session 9 (%)</t>
-  </si>
-  <si>
-    <t>Quizzes started</t>
-  </si>
-  <si>
-    <t>Start of Session 8 (%)</t>
   </si>
 </sst>
 </file>
@@ -809,13 +809,13 @@
         <v>18</v>
       </c>
       <c r="B10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -879,10 +879,10 @@
         <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
@@ -911,7 +911,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
@@ -929,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -969,7 +969,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
@@ -1007,13 +1007,13 @@
         <v>1</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
       </c>
       <c r="F16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
@@ -1225,7 +1225,7 @@
         <v>31</v>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="b">
         <v>1</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>32</v>
       </c>
       <c r="B24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="b">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -1452,10 +1452,10 @@
         <v>0</v>
       </c>
       <c r="C30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -1484,10 +1484,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" t="b">
         <v>0</v>
@@ -1633,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1747,7 +1747,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -1779,7 +1779,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -1811,7 +1811,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -1875,7 +1875,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -1907,7 +1907,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -1916,10 +1916,10 @@
         <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
@@ -1939,7 +1939,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -1948,10 +1948,10 @@
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
@@ -1971,16 +1971,16 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -2003,7 +2003,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -2012,10 +2012,10 @@
         <v>1</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
@@ -2035,7 +2035,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
@@ -2062,24 +2062,24 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
       </c>
       <c r="E12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
@@ -2099,22 +2099,22 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
       </c>
       <c r="C13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
       </c>
       <c r="F13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
@@ -2126,12 +2126,12 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -2163,7 +2163,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -2172,13 +2172,13 @@
         <v>0</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
       </c>
       <c r="F15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
@@ -2195,7 +2195,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -2259,7 +2259,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
@@ -2291,7 +2291,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
@@ -2323,7 +2323,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
@@ -2332,13 +2332,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
@@ -2355,7 +2355,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
@@ -2387,7 +2387,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
@@ -2396,13 +2396,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
@@ -2419,7 +2419,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -2428,13 +2428,13 @@
         <v>0</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
@@ -2451,16 +2451,16 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -2483,10 +2483,10 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
@@ -2498,7 +2498,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
@@ -2515,7 +2515,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -2547,7 +2547,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -2579,7 +2579,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -2675,7 +2675,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -2707,7 +2707,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -2739,7 +2739,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -2771,7 +2771,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -2803,7 +2803,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
@@ -2835,7 +2835,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B36" t="b">
         <v>0</v>
